--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4432DD2-112F-6F48-9910-CB201F5FFB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFFD7F-9BB8-9E49-B538-0A8FE8510713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB316C93-902B-2845-BC4E-0F3D3CB10AD1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4A57A-CD5E-834D-9AA3-BCF9CB47B8E5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFFD7F-9BB8-9E49-B538-0A8FE8510713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A07D4-7020-8744-A256-9B6527571BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,9 +946,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A07D4-7020-8744-A256-9B6527571BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C356F-730F-2A43-A223-6FBDC628C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Lotte</t>
   </si>
   <si>
     <t>VIP</t>
@@ -925,7 +922,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,17 +936,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>20</v>
       </c>
@@ -980,13 +975,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
@@ -997,7 +992,7 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1036,40 +1031,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.3">
@@ -1077,14 +1072,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFFD7F-9BB8-9E49-B538-0A8FE8510713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
     <sheet name="MOVIE_TYPE" sheetId="3" r:id="rId2"/>
     <sheet name="MOVIE" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +38,6 @@
     <t>Lotte</t>
   </si>
   <si>
-    <t>VIP</t>
-  </si>
-  <si>
     <t>Decription</t>
   </si>
   <si>
@@ -99,13 +90,175 @@
   </si>
   <si>
     <t>ID_MOVIE</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>agd</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>dsaa</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>NHAN</t>
+  </si>
+  <si>
+    <t>A Media</t>
+  </si>
+  <si>
+    <t>dac cu ao den</t>
+  </si>
+  <si>
+    <t>men in black</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>THANG</t>
+  </si>
+  <si>
+    <t>THIEN</t>
+  </si>
+  <si>
+    <t>B Entertainment</t>
+  </si>
+  <si>
+    <t>hanna</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>HIEU</t>
+  </si>
+  <si>
+    <t>ghi</t>
+  </si>
+  <si>
+    <t>HAN</t>
+  </si>
+  <si>
+    <t>C Media</t>
+  </si>
+  <si>
+    <t>khach san huyen bi</t>
+  </si>
+  <si>
+    <t>hotel transylvania</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ZXC</t>
+  </si>
+  <si>
+    <t>SDF</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>FGH</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>TRUONG</t>
+  </si>
+  <si>
+    <t>HUYNH</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>aggh</t>
+  </si>
+  <si>
+    <t>SANG</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>7 ngay</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>xanh</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>EWR</t>
+  </si>
+  <si>
+    <t>GHD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +286,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,6 +345,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +369,204 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -216,7 +581,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -231,7 +595,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -246,7 +609,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -261,7 +623,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -276,7 +637,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -291,277 +651,62 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -580,46 +725,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BACD4DAD-7D01-E948-B036-26DBA9F56DC2}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:C2" xr:uid="{BACD4DAD-7D01-E948-B036-26DBA9F56DC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{192344F7-7C88-784E-A410-6E78A6753E84}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{4CA4AB72-74C0-C74B-8D0A-59D68481FFB7}" name="Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{4EE89306-68D2-5C49-BFA8-C6B828325D8A}" name="Decription" dataDxfId="20"/>
+    <tableColumn id="1" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" name="Decription" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4EF0E58-3BCF-6C4A-854F-F366BACAF1A9}" name="Table4" displayName="Table4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C2" xr:uid="{F4EF0E58-3BCF-6C4A-854F-F366BACAF1A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E165CED6-935D-044A-85C7-F0D1408CCA73}" name="ID_TYPE" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2A5D7725-E879-ED4F-853E-37E266F2EB09}" name="ID_MOVIE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C540009C-284F-A341-8489-EA223F8E692E}" name="Decription" dataDxfId="15"/>
+    <tableColumn id="1" name="ID_TYPE" dataDxfId="17"/>
+    <tableColumn id="2" name="ID_MOVIE" dataDxfId="16"/>
+    <tableColumn id="4" name="Decription" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D148110B-F30E-7C41-8395-AD2210FF9C18}" name="Table33" displayName="Table33" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M2" xr:uid="{D148110B-F30E-7C41-8395-AD2210FF9C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table33" displayName="Table33" ref="A1:M6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
+  <autoFilter ref="A1:M6"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{920F1E88-821E-694D-854F-99A68BF5B133}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A0F13786-582A-9548-A611-A46944417BA1}" name="ACTOR" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4357B097-EF9F-744C-9867-ECFB20EFCBA5}" name="CONTENT" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{7A2ABE56-5374-9A44-826C-D3DEB7EE4D55}" name="DIRECTOR" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{759D19C9-2B85-9F4D-96EF-1D9A7012ECB1}" name="DURATION" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E738B5D9-A3B1-FC40-B420-B87E0AB43EA8}" name="FROM_DATE" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2B9941B9-B2BA-8144-810C-8D02B7F3EEB1}" name="TO_DATE" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{759055AD-5899-EA41-A4B7-79E2288B54F4}" name="movie_production_company" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{821E6E4D-0FF4-1741-B530-E85F642E13EA}" name="version" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{BDFB1331-EE14-F040-901A-900320B8CDB7}" name="movie_name_en" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C3FFE515-2C60-894B-97D2-3C2A34354BEE}" name="movie_name_vn" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{C999E663-A79F-2E45-A58A-7504E0A076A1}" name="large_image" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{7857A273-D622-F944-887B-3FDE27B373E3}" name="small_image" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="ACTOR" dataDxfId="12"/>
+    <tableColumn id="3" name="CONTENT" dataDxfId="11"/>
+    <tableColumn id="4" name="DIRECTOR" dataDxfId="10"/>
+    <tableColumn id="5" name="DURATION" dataDxfId="9"/>
+    <tableColumn id="6" name="FROM_DATE" dataDxfId="8"/>
+    <tableColumn id="7" name="TO_DATE" dataDxfId="7"/>
+    <tableColumn id="8" name="movie_production_company" dataDxfId="6"/>
+    <tableColumn id="9" name="version" dataDxfId="5"/>
+    <tableColumn id="10" name="movie_name_en" dataDxfId="4"/>
+    <tableColumn id="11" name="movie_name_vn" dataDxfId="3"/>
+    <tableColumn id="12" name="large_image" dataDxfId="2"/>
+    <tableColumn id="13" name="small_image" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -914,38 +1059,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB316C93-902B-2845-BC4E-0F3D3CB10AD1}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -954,6 +1099,50 @@
       </c>
       <c r="C2" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -965,41 +1154,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED14AC5-3BAE-8349-B382-B0E74A458D85}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2000</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25">
+      <c r="A6" s="7">
         <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1011,91 +1277,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4A57A-CD5E-834D-9AA3-BCF9CB47B8E5}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" customWidth="1"/>
-    <col min="12" max="12" width="32.83203125" customWidth="1"/>
+    <col min="1" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="43.625" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="32.125" customWidth="1"/>
+    <col min="11" max="11" width="32.375" customWidth="1"/>
+    <col min="12" max="12" width="32.875" customWidth="1"/>
     <col min="13" max="13" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="26.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:13" ht="26.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5">
+        <v>120</v>
+      </c>
+      <c r="F2" s="6">
+        <v>44416</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44454</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="26.25">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>110</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44387</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44448</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="26.25">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5">
+        <v>120</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44352</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44463</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="26.25">
+      <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5">
+        <v>120</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44353</v>
+      </c>
+      <c r="G5" s="6">
+        <v>44464</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.25">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5">
+        <v>120</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44354</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44465</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C356F-730F-2A43-A223-6FBDC628C0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE634703-076F-3649-A35C-07D357E81A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>ID_MOVIE</t>
+  </si>
+  <si>
+    <t>CGV</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,8 +946,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE634703-076F-3649-A35C-07D357E81A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13DD51-5D0D-FE47-B017-28EDD5F61392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>VIP</t>
   </si>
   <si>
     <t>Decription</t>
@@ -172,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -184,6 +181,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB316C93-902B-2845-BC4E-0F3D3CB10AD1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -982,13 +982,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4A57A-CD5E-834D-9AA3-BCF9CB47B8E5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,40 +1038,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.3">
@@ -1079,17 +1079,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43850</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43863</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD13DD51-5D0D-FE47-B017-28EDD5F61392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FA35A-C8CF-7644-9CDA-44940D2B092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>ID_MOVIE</t>
   </si>
   <si>
-    <t>CGV</t>
+    <t>lotte</t>
   </si>
 </sst>
 </file>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB316C93-902B-2845-BC4E-0F3D3CB10AD1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4A57A-CD5E-834D-9AA3-BCF9CB47B8E5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FA35A-C8CF-7644-9CDA-44940D2B092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E6B5D-0FF0-A84F-9995-95D58B0FB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenminhduy941gmail.com/Documents/Documents/java Full Stack/Hibernate_CuongNM_DuyNM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9E6B5D-0FF0-A84F-9995-95D58B0FB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD708879-2F93-354A-93A6-FF15FAFA4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{4FEA7247-0345-6546-8294-C54F4C442E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
-    <sheet name="MOVIE_TYPE" sheetId="3" r:id="rId2"/>
-    <sheet name="MOVIE" sheetId="4" r:id="rId3"/>
+    <sheet name="MOVIE" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +43,6 @@
     <t>Decription</t>
   </si>
   <si>
-    <t>Very good</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -87,12 +83,6 @@
   </si>
   <si>
     <t>small_image</t>
-  </si>
-  <si>
-    <t>ID_TYPE</t>
-  </si>
-  <si>
-    <t>ID_MOVIE</t>
   </si>
   <si>
     <t>lotte</t>
@@ -190,82 +180,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <strike val="0"/>
@@ -580,30 +495,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BACD4DAD-7D01-E948-B036-26DBA9F56DC2}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BACD4DAD-7D01-E948-B036-26DBA9F56DC2}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:C2" xr:uid="{BACD4DAD-7D01-E948-B036-26DBA9F56DC2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{192344F7-7C88-784E-A410-6E78A6753E84}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{4CA4AB72-74C0-C74B-8D0A-59D68481FFB7}" name="Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{4EE89306-68D2-5C49-BFA8-C6B828325D8A}" name="Decription" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{192344F7-7C88-784E-A410-6E78A6753E84}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4CA4AB72-74C0-C74B-8D0A-59D68481FFB7}" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4EE89306-68D2-5C49-BFA8-C6B828325D8A}" name="Decription" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4EF0E58-3BCF-6C4A-854F-F366BACAF1A9}" name="Table4" displayName="Table4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C2" xr:uid="{F4EF0E58-3BCF-6C4A-854F-F366BACAF1A9}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E165CED6-935D-044A-85C7-F0D1408CCA73}" name="ID_TYPE" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2A5D7725-E879-ED4F-853E-37E266F2EB09}" name="ID_MOVIE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C540009C-284F-A341-8489-EA223F8E692E}" name="Decription" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D148110B-F30E-7C41-8395-AD2210FF9C18}" name="Table33" displayName="Table33" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M2" xr:uid="{D148110B-F30E-7C41-8395-AD2210FF9C18}"/>
   <tableColumns count="13">
@@ -924,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB316C93-902B-2845-BC4E-0F3D3CB10AD1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -939,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -950,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -965,57 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED14AC5-3BAE-8349-B382-B0E74A458D85}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4A57A-CD5E-834D-9AA3-BCF9CB47B8E5}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,40 +895,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.3">
@@ -1079,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
